--- a/saves/Lentejas y cosas.xlsx
+++ b/saves/Lentejas y cosas.xlsx
@@ -2722,6 +2722,12 @@
         <f>E7/SUM($E$3:$E$9)</f>
         <v/>
       </c>
+      <c r="H7" t="n">
+        <v>851.4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3562.2576</v>
+      </c>
       <c r="L7" t="n">
         <v>94.59999999999999</v>
       </c>
@@ -3166,6 +3172,12 @@
       </c>
       <c r="G9" t="n">
         <v>9.451000000000001</v>
+      </c>
+      <c r="H9" t="n">
+        <v>360.285</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1507.43244</v>
       </c>
       <c r="J9" t="n">
         <v>3.771</v>

--- a/saves/Lentejas y cosas.xlsx
+++ b/saves/Lentejas y cosas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://correoucuedu-my.sharepoint.com/personal/jose_torres_correo_ucu_edu_uy/Documents/VS CODE/Programacion II/food_formulator/saves/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_99F9CCEE38E4940C3D5DE8B4205BDA1636432557" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB8B626E-80DE-4A00-8C9D-414AB1C5B411}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_99F9CCEE38E4940C3D5DE8B4205BDA1636432557" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC581D0C-DDC0-4BB1-98C0-D58A9C25AA77}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingredientes" sheetId="1" r:id="rId1"/>
@@ -1153,13 +1153,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1217,7 +1223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1270,6 +1276,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1572,13 +1579,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FR11"/>
+  <dimension ref="A1:FR12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="FC3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="FD19" sqref="FD19"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4302,694 +4309,706 @@
       </c>
     </row>
     <row r="11" spans="1:174" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="22">
+        <v>746782</v>
+      </c>
+      <c r="E11" s="8">
+        <v>100</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.20961290973536206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:174" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>193</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>194</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>194</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>194</v>
       </c>
-      <c r="E11" s="10">
-        <f>SUBTOTAL(9,E3:E10)</f>
-        <v>477.06985283611959</v>
-      </c>
-      <c r="F11" s="11" t="s">
+      <c r="E12" s="10">
+        <f>SUBTOTAL(9,E3:E11)</f>
+        <v>577.06985283611959</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$G$3:$G$10)</f>
         <v>50.425040399286992</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$H$3:$H$10)</f>
         <v>253.61488249023606</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$I$3:$I$10)</f>
         <v>1071.7467997451483</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$J$3:$J$10)</f>
         <v>24.770686996353625</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$K$3:$K$10)</f>
         <v>24.12769486810155</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$L$3:$L$10)</f>
         <v>0.88496222825680837</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$M$3:$M$10)</f>
         <v>6.943060812391832</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$N$3:$N$10)</f>
         <v>14.238641629279604</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$O$3:$O$10)</f>
         <v>14.650530996909589</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$P$3:$P$10)</f>
         <v>1.436764439443897</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$Q$3:$Q$10)</f>
         <v>26.159594014325013</v>
       </c>
-      <c r="R11" s="12">
+      <c r="R12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$R$3:$R$10)</f>
         <v>5.0229541559884838</v>
       </c>
-      <c r="S11" s="12">
+      <c r="S12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$S$3:$S$10)</f>
         <v>8.7745571047530539</v>
       </c>
-      <c r="T11" s="12">
+      <c r="T12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$T$3:$T$10)</f>
         <v>1.66292908390054E-3</v>
       </c>
-      <c r="U11" s="12">
+      <c r="U12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$U$3:$U$10)</f>
         <v>0.14935618528343669</v>
       </c>
-      <c r="V11" s="12">
+      <c r="V12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$V$3:$V$10)</f>
         <v>9.2292564156479975E-2</v>
       </c>
-      <c r="W11" s="12">
+      <c r="W12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$W$3:$W$10)</f>
         <v>0</v>
       </c>
-      <c r="X11" s="12">
+      <c r="X12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$X$3:$X$10)</f>
         <v>0</v>
       </c>
-      <c r="Y11" s="12">
+      <c r="Y12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$Y$3:$Y$10)</f>
         <v>0</v>
       </c>
-      <c r="Z11" s="12">
+      <c r="Z12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$Z$3:$Z$10)</f>
         <v>2.5528001670194711</v>
       </c>
-      <c r="AA11" s="12">
+      <c r="AA12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$AA$3:$AA$10)</f>
         <v>1.1000485502911805</v>
       </c>
-      <c r="AB11" s="12">
+      <c r="AB12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$AB$3:$AB$10)</f>
         <v>109.65801676837393</v>
       </c>
-      <c r="AC11" s="12">
+      <c r="AC12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$AC$3:$AC$10)</f>
         <v>4.2474744593153435</v>
       </c>
-      <c r="AD11" s="12">
+      <c r="AD12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$AD$3:$AD$10)</f>
         <v>26.255769780275415</v>
       </c>
-      <c r="AE11" s="12">
+      <c r="AE12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$AE$3:$AE$10)</f>
         <v>108.35467041012939</v>
       </c>
-      <c r="AF11" s="12">
+      <c r="AF12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$AF$3:$AF$10)</f>
         <v>191.68114263983307</v>
       </c>
-      <c r="AG11" s="12">
+      <c r="AG12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$AG$3:$AG$10)</f>
         <v>377.50835742753725</v>
       </c>
-      <c r="AH11" s="12">
+      <c r="AH12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$AH$3:$AH$10)</f>
         <v>0.96340066760468868</v>
       </c>
-      <c r="AI11" s="12">
+      <c r="AI12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$AI$3:$AI$10)</f>
         <v>0.15769073489076213</v>
       </c>
-      <c r="AJ11" s="12">
+      <c r="AJ12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$AJ$3:$AJ$10)</f>
         <v>1.5607655991881915</v>
       </c>
-      <c r="AK11" s="12">
+      <c r="AK12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$AK$3:$AK$10)</f>
         <v>15.437990802009416</v>
       </c>
-      <c r="AL11" s="12">
+      <c r="AL12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$AL$3:$AL$10)</f>
         <v>11.126839497038029</v>
       </c>
-      <c r="AM11" s="12">
+      <c r="AM12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$AM$3:$AM$10)</f>
         <v>1.3122385098417896E-2</v>
       </c>
-      <c r="AN11" s="12">
+      <c r="AN12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$AN$3:$AN$10)</f>
         <v>0.31595652594110257</v>
       </c>
-      <c r="AO11" s="12">
+      <c r="AO12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$AO$3:$AO$10)</f>
         <v>6.7333256284591247E-2</v>
       </c>
-      <c r="AP11" s="12">
+      <c r="AP12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$AP$3:$AP$10)</f>
         <v>0.18503859090768732</v>
       </c>
-      <c r="AQ11" s="12">
+      <c r="AQ12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$AQ$3:$AQ$10)</f>
         <v>0.65574464229971741</v>
       </c>
-      <c r="AR11" s="12">
+      <c r="AR12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$AR$3:$AR$10)</f>
         <v>2.9766430601819667E-2</v>
       </c>
-      <c r="AS11" s="12">
+      <c r="AS12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$AS$3:$AS$10)</f>
         <v>3.7766656656719307E-2</v>
       </c>
-      <c r="AT11" s="12">
+      <c r="AT12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$AT$3:$AT$10)</f>
         <v>35.609041105843311</v>
       </c>
-      <c r="AU11" s="12">
+      <c r="AU12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$AU$3:$AU$10)</f>
         <v>12.157548764651001</v>
       </c>
-      <c r="AV11" s="12">
+      <c r="AV12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$AV$3:$AV$10)</f>
         <v>1.1277174543762483</v>
       </c>
-      <c r="AW11" s="12">
+      <c r="AW12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$AW$3:$AW$10)</f>
         <v>21.879395518177091</v>
       </c>
-      <c r="AX11" s="12">
+      <c r="AX12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$AX$3:$AX$10)</f>
         <v>110.28224277966781</v>
       </c>
-      <c r="AY11" s="12">
+      <c r="AY12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$AY$3:$AY$10)</f>
         <v>0.18865161876182585</v>
       </c>
-      <c r="AZ11" s="12">
+      <c r="AZ12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$AZ$3:$AZ$10)</f>
         <v>97.15558366234032</v>
       </c>
-      <c r="BA11" s="12">
+      <c r="BA12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$BA$3:$BA$10)</f>
         <v>6.2883872920608624E-2</v>
       </c>
-      <c r="BB11" s="12">
+      <c r="BB12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$BB$3:$BB$10)</f>
         <v>6.2883872920608624E-2</v>
       </c>
-      <c r="BC11" s="12">
+      <c r="BC12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$BC$3:$BC$10)</f>
         <v>7.891926051536382</v>
       </c>
-      <c r="BD11" s="12">
+      <c r="BD12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$BD$3:$BD$10)</f>
         <v>0.41859698074151819</v>
       </c>
-      <c r="BE11" s="12">
+      <c r="BE12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$BE$3:$BE$10)</f>
         <v>0.32070775189510398</v>
       </c>
-      <c r="BF11" s="12">
+      <c r="BF12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$BF$3:$BF$10)</f>
         <v>0</v>
       </c>
-      <c r="BG11" s="12">
+      <c r="BG12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$BG$3:$BG$10)</f>
         <v>58.052295351208521</v>
       </c>
-      <c r="BH11" s="12">
+      <c r="BH12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$BH$3:$BH$10)</f>
         <v>56.281066263944716</v>
       </c>
-      <c r="BI11" s="12">
+      <c r="BI12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$BI$3:$BI$10)</f>
         <v>9.3124028698430248</v>
       </c>
-      <c r="BJ11" s="12">
+      <c r="BJ12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$BJ$3:$BJ$10)</f>
         <v>0</v>
       </c>
-      <c r="BK11" s="12">
+      <c r="BK12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$BK$3:$BK$10)</f>
         <v>0</v>
       </c>
-      <c r="BL11" s="12">
+      <c r="BL12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$BL$3:$BL$10)</f>
         <v>8.3146454195027003E-2</v>
       </c>
-      <c r="BM11" s="12">
+      <c r="BM12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$BM$3:$BM$10)</f>
         <v>14.813344330998044</v>
       </c>
-      <c r="BN11" s="12">
+      <c r="BN12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$BN$3:$BN$10)</f>
         <v>4.08745173983956</v>
       </c>
-      <c r="BO11" s="12">
+      <c r="BO12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$BO$3:$BO$10)</f>
         <v>24.528203987532965</v>
       </c>
-      <c r="BP11" s="12">
+      <c r="BP12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$BP$3:$BP$10)</f>
         <v>1.247196812925405</v>
       </c>
-      <c r="BQ11" s="12">
+      <c r="BQ12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$BQ$3:$BQ$10)</f>
         <v>0</v>
       </c>
-      <c r="BR11" s="12">
+      <c r="BR12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$BR$3:$BR$10)</f>
         <v>0</v>
       </c>
-      <c r="BS11" s="12">
+      <c r="BS12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$BS$3:$BS$10)</f>
         <v>19.296964470237441</v>
       </c>
-      <c r="BT11" s="12">
+      <c r="BT12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$BT$3:$BT$10)</f>
         <v>17.921903782373455</v>
       </c>
-      <c r="BU11" s="12">
+      <c r="BU12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$BU$3:$BU$10)</f>
         <v>72.316453858699916</v>
       </c>
-      <c r="BV11" s="12">
+      <c r="BV12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$BV$3:$BV$10)</f>
         <v>72.002034494096876</v>
       </c>
-      <c r="BW11" s="12">
+      <c r="BW12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$BW$3:$BW$10)</f>
         <v>1.9364599569112046</v>
       </c>
-      <c r="BX11" s="12">
+      <c r="BX12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$BX$3:$BX$10)</f>
         <v>0</v>
       </c>
-      <c r="BY11" s="12">
+      <c r="BY12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$BY$3:$BY$10)</f>
         <v>1.9494000605388674E-2</v>
       </c>
-      <c r="BZ11" s="12">
+      <c r="BZ12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$BZ$3:$BZ$10)</f>
         <v>3.3251315097139962</v>
       </c>
-      <c r="CA11" s="12">
+      <c r="CA12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$CA$3:$CA$10)</f>
         <v>0.31444731299100781</v>
       </c>
-      <c r="CB11" s="12">
+      <c r="CB12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$CB$3:$CB$10)</f>
         <v>1.8865161876182586E-3</v>
       </c>
-      <c r="CC11" s="12">
+      <c r="CC12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$CC$3:$CC$10)</f>
         <v>1.6769032778828966E-2</v>
       </c>
-      <c r="CD11" s="12">
+      <c r="CD12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$CD$3:$CD$10)</f>
         <v>0</v>
       </c>
-      <c r="CE11" s="12">
+      <c r="CE12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$CE$3:$CE$10)</f>
         <v>6.288387292060863E-4</v>
       </c>
-      <c r="CF11" s="12">
+      <c r="CF12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$CF$3:$CF$10)</f>
         <v>30.938865476939441</v>
       </c>
-      <c r="CG11" s="12">
+      <c r="CG12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$CG$3:$CG$10)</f>
         <v>0.77347163692348597</v>
       </c>
-      <c r="CH11" s="12">
+      <c r="CH12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$CH$3:$CH$10)</f>
         <v>0</v>
       </c>
-      <c r="CI11" s="12">
+      <c r="CI12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$CI$3:$CI$10)</f>
         <v>0.77347163692348597</v>
       </c>
-      <c r="CJ11" s="12">
+      <c r="CJ12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$CJ$3:$CJ$10)</f>
         <v>0.17607484417770414</v>
       </c>
-      <c r="CK11" s="12">
+      <c r="CK12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$CK$3:$CK$10)</f>
         <v>12.821183236873157</v>
       </c>
-      <c r="CL11" s="12">
+      <c r="CL12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$CL$3:$CL$10)</f>
         <v>0</v>
       </c>
-      <c r="CM11" s="12">
+      <c r="CM12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$CM$3:$CM$10)</f>
         <v>0</v>
       </c>
-      <c r="CN11" s="12">
+      <c r="CN12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$CN$3:$CN$10)</f>
         <v>2.8384417752449451</v>
       </c>
-      <c r="CO11" s="12">
+      <c r="CO12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$CO$3:$CO$10)</f>
         <v>0</v>
       </c>
-      <c r="CP11" s="12">
+      <c r="CP12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$CP$3:$CP$10)</f>
         <v>0</v>
       </c>
-      <c r="CQ11" s="12">
+      <c r="CQ12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$CQ$3:$CQ$10)</f>
         <v>6.2883872920608619E-4</v>
       </c>
-      <c r="CR11" s="12">
+      <c r="CR12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$CR$3:$CR$10)</f>
         <v>2.5551813696740636E-3</v>
       </c>
-      <c r="CS11" s="12">
+      <c r="CS12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$CS$3:$CS$10)</f>
         <v>9.9314596632614546E-3</v>
       </c>
-      <c r="CT11" s="12">
+      <c r="CT12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$CT$3:$CT$10)</f>
         <v>0</v>
       </c>
-      <c r="CU11" s="12">
+      <c r="CU12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$CU$3:$CU$10)</f>
         <v>3.486281914718542E-2</v>
       </c>
-      <c r="CV11" s="12">
+      <c r="CV12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$CV$3:$CV$10)</f>
         <v>1.4672903681475346E-4</v>
       </c>
-      <c r="CW11" s="12">
+      <c r="CW12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$CW$3:$CW$10)</f>
         <v>2.049103139764191</v>
       </c>
-      <c r="CX11" s="12">
+      <c r="CX12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$CX$3:$CX$10)</f>
         <v>1.2209253282385731E-2</v>
       </c>
-      <c r="CY11" s="12">
+      <c r="CY12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$CY$3:$CY$10)</f>
         <v>0.61220105385069146</v>
       </c>
-      <c r="CZ11" s="12">
+      <c r="CZ12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$CZ$3:$CZ$10)</f>
         <v>4.3955827171505431E-2</v>
       </c>
-      <c r="DA11" s="12">
+      <c r="DA12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$DA$3:$DA$10)</f>
         <v>2.620161371692026E-4</v>
       </c>
-      <c r="DB11" s="12">
+      <c r="DB12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$DB$3:$DB$10)</f>
         <v>2.3958755582751887E-2</v>
       </c>
-      <c r="DC11" s="12">
+      <c r="DC12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$DC$3:$DC$10)</f>
         <v>1.2996000403592447E-3</v>
       </c>
-      <c r="DD11" s="12">
+      <c r="DD12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$DD$3:$DD$10)</f>
         <v>7.3176663317671897</v>
       </c>
-      <c r="DE11" s="12">
+      <c r="DE12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$DE$3:$DE$10)</f>
         <v>0</v>
       </c>
-      <c r="DF11" s="12">
+      <c r="DF12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$DF$3:$DF$10)</f>
         <v>0</v>
       </c>
-      <c r="DG11" s="12">
+      <c r="DG12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$DG$3:$DG$10)</f>
         <v>2.1086360009678305E-2</v>
       </c>
-      <c r="DH11" s="12">
+      <c r="DH12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$DH$3:$DH$10)</f>
         <v>7.5670260414465701E-2</v>
       </c>
-      <c r="DI11" s="12">
+      <c r="DI12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$DI$3:$DI$10)</f>
         <v>0</v>
       </c>
-      <c r="DJ11" s="12">
+      <c r="DJ12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$DJ$3:$DJ$10)</f>
         <v>5.8127294850311841</v>
       </c>
-      <c r="DK11" s="12">
+      <c r="DK12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$DK$3:$DK$10)</f>
         <v>5.1788600459914482</v>
       </c>
-      <c r="DL11" s="12">
+      <c r="DL12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$DL$3:$DL$10)</f>
         <v>0.107971609804685</v>
       </c>
-      <c r="DM11" s="12">
+      <c r="DM12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$DM$3:$DM$10)</f>
         <v>6.2883872920608619E-3</v>
       </c>
-      <c r="DN11" s="12">
+      <c r="DN12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$DN$3:$DN$10)</f>
         <v>6.2883872920608619E-4</v>
       </c>
-      <c r="DO11" s="12">
+      <c r="DO12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$DO$3:$DO$10)</f>
         <v>0</v>
       </c>
-      <c r="DP11" s="12">
+      <c r="DP12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$DP$3:$DP$10)</f>
         <v>3.6974822928902999</v>
       </c>
-      <c r="DQ11" s="12">
+      <c r="DQ12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$DQ$3:$DQ$10)</f>
         <v>1.8800084054806749</v>
       </c>
-      <c r="DR11" s="12">
+      <c r="DR12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$DR$3:$DR$10)</f>
         <v>0.99251712759693933</v>
       </c>
-      <c r="DS11" s="12">
+      <c r="DS12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$DS$3:$DS$10)</f>
         <v>2.1646725188370839</v>
       </c>
-      <c r="DT11" s="12">
+      <c r="DT12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$DT$3:$DT$10)</f>
         <v>0.63794920497288421</v>
       </c>
-      <c r="DU11" s="12">
+      <c r="DU12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$DU$3:$DU$10)</f>
         <v>7.2840486133038326E-2</v>
       </c>
-      <c r="DV11" s="12">
+      <c r="DV12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$DV$3:$DV$10)</f>
         <v>0.6448664309941512</v>
       </c>
-      <c r="DW11" s="12">
+      <c r="DW12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$DW$3:$DW$10)</f>
         <v>3.4586130106334738E-3</v>
       </c>
-      <c r="DX11" s="12">
+      <c r="DX12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$DX$3:$DX$10)</f>
         <v>0</v>
       </c>
-      <c r="DY11" s="12">
+      <c r="DY12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$DY$3:$DY$10)</f>
         <v>0</v>
       </c>
-      <c r="DZ11" s="12">
+      <c r="DZ12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$DZ$3:$DZ$10)</f>
         <v>0</v>
       </c>
-      <c r="EA11" s="12">
+      <c r="EA12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$EA$3:$EA$10)</f>
         <v>6.2883872920608619E-3</v>
       </c>
-      <c r="EB11" s="12">
+      <c r="EB12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$EB$3:$EB$10)</f>
         <v>6.2883872920608619E-3</v>
       </c>
-      <c r="EC11" s="12">
+      <c r="EC12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$EC$3:$EC$10)</f>
         <v>8.3845163894144829E-4</v>
       </c>
-      <c r="ED11" s="12">
+      <c r="ED12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$ED$3:$ED$10)</f>
         <v>0</v>
       </c>
-      <c r="EE11" s="12">
+      <c r="EE12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$EE$3:$EE$10)</f>
         <v>0</v>
       </c>
-      <c r="EF11" s="12">
+      <c r="EF12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$EF$3:$EF$10)</f>
         <v>0</v>
       </c>
-      <c r="EG11" s="12">
+      <c r="EG12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$EG$3:$EG$10)</f>
         <v>2.4839129803640409E-2</v>
       </c>
-      <c r="EH11" s="12">
+      <c r="EH12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$EH$3:$EH$10)</f>
         <v>1.8865161876182586E-3</v>
       </c>
-      <c r="EI11" s="12">
+      <c r="EI12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$EI$3:$EI$10)</f>
         <v>1.8865161876182586E-3</v>
       </c>
-      <c r="EJ11" s="12">
+      <c r="EJ12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$EJ$3:$EJ$10)</f>
         <v>2.2952613616022147E-2</v>
       </c>
-      <c r="EK11" s="12">
+      <c r="EK12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$EK$3:$EK$10)</f>
         <v>2.2952613616022147E-2</v>
       </c>
-      <c r="EL11" s="12">
+      <c r="EL12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$EL$3:$EL$10)</f>
         <v>129.2263588518507</v>
       </c>
-      <c r="EM11" s="12">
+      <c r="EM12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$EM$3:$EM$10)</f>
         <v>2.161807809070702</v>
       </c>
-      <c r="EN11" s="12">
+      <c r="EN12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$EN$3:$EN$10)</f>
         <v>5.6267790779661479E-2</v>
       </c>
-      <c r="EO11" s="12">
+      <c r="EO12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$EO$3:$EO$10)</f>
         <v>0.19807302034473126</v>
       </c>
-      <c r="EP11" s="12">
+      <c r="EP12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$EP$3:$EP$10)</f>
         <v>0.20582171090794849</v>
       </c>
-      <c r="EQ11" s="12">
+      <c r="EQ12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$EQ$3:$EQ$10)</f>
         <v>0.35117638574453708</v>
       </c>
-      <c r="ER11" s="12">
+      <c r="ER12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$ER$3:$ER$10)</f>
         <v>0.28180149971912338</v>
       </c>
-      <c r="ES11" s="12">
+      <c r="ES12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$ES$3:$ES$10)</f>
         <v>0.13791271783128412</v>
       </c>
-      <c r="ET11" s="12">
+      <c r="ET12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$ET$3:$ET$10)</f>
         <v>4.8224943433115668E-3</v>
       </c>
-      <c r="EU11" s="12">
+      <c r="EU12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$EU$3:$EU$10)</f>
         <v>0.2196561629504824</v>
       </c>
-      <c r="EV11" s="12">
+      <c r="EV12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$EV$3:$EV$10)</f>
         <v>0.17229063244728174</v>
       </c>
-      <c r="EW11" s="12">
+      <c r="EW12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$EW$3:$EW$10)</f>
         <v>0.24940861935831968</v>
       </c>
-      <c r="EX11" s="12">
+      <c r="EX12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$EX$3:$EX$10)</f>
         <v>0.2612503513389694</v>
       </c>
-      <c r="EY11" s="12">
+      <c r="EY12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$EY$3:$EY$10)</f>
         <v>9.8708815323479346E-2</v>
       </c>
-      <c r="EZ11" s="12">
+      <c r="EZ12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$EZ$3:$EZ$10)</f>
         <v>0.22352002758660422</v>
       </c>
-      <c r="FA11" s="12">
+      <c r="FA12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$FA$3:$FA$10)</f>
         <v>0.4357307399832866</v>
       </c>
-      <c r="FB11" s="12">
+      <c r="FB12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$FB$3:$FB$10)</f>
         <v>0.54326775235512015</v>
       </c>
-      <c r="FC11" s="12">
+      <c r="FC12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$FC$3:$FC$10)</f>
         <v>0.14449665932607186</v>
       </c>
-      <c r="FD11" s="12">
+      <c r="FD12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$FD$3:$FD$10)</f>
         <v>0.21091320848542044</v>
       </c>
-      <c r="FE11" s="12">
+      <c r="FE12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$FE$3:$FE$10)</f>
         <v>0.30516495463822685</v>
       </c>
-      <c r="FF11" s="12">
+      <c r="FF12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$FF$3:$FF$10)</f>
         <v>0</v>
       </c>
-      <c r="FG11" s="12">
+      <c r="FG12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$FG$3:$FG$10)</f>
         <v>0.12105145537217159</v>
       </c>
-      <c r="FH11" s="12">
+      <c r="FH12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$FH$3:$FH$10)</f>
         <v>0</v>
       </c>
-      <c r="FI11" s="12">
+      <c r="FI12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$FI$3:$FI$10)</f>
         <v>1.0480645486768103</v>
       </c>
-      <c r="FJ11" s="12">
+      <c r="FJ12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$FJ$3:$FJ$10)</f>
         <v>38.568775391306616</v>
       </c>
-      <c r="FK11" s="12">
+      <c r="FK12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$FK$3:$FK$10)</f>
         <v>0.76927937872877883</v>
       </c>
-      <c r="FL11" s="12">
+      <c r="FL12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$FL$3:$FL$10)</f>
         <v>15.762890812099229</v>
       </c>
-      <c r="FM11" s="12">
+      <c r="FM12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$FM$3:$FM$10)</f>
         <v>0</v>
       </c>
-      <c r="FN11" s="12">
+      <c r="FN12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$FN$3:$FN$10)</f>
         <v>27.574578275686882</v>
       </c>
-      <c r="FO11" s="12">
+      <c r="FO12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$FO$3:$FO$10)</f>
         <v>2.2533387796551421E-2</v>
       </c>
-      <c r="FP11" s="12">
+      <c r="FP12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$FP$3:$FP$10)</f>
         <v>5.8901227635636745E-2</v>
       </c>
-      <c r="FQ11" s="12">
+      <c r="FQ12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$FQ$3:$FQ$10)</f>
         <v>0.11004677761106509</v>
       </c>
-      <c r="FR11" s="12">
+      <c r="FR12" s="12">
         <f>SUMPRODUCT($F$3:$F$10,$FR$3:$FR$10)</f>
         <v>0.21799742612477657</v>
       </c>
@@ -5033,7 +5052,7 @@
         <v>198</v>
       </c>
       <c r="B2">
-        <f>Ingredientes!G11</f>
+        <f>Ingredientes!G12</f>
         <v>50.425040399286992</v>
       </c>
       <c r="C2" t="s">
@@ -5045,7 +5064,7 @@
         <v>200</v>
       </c>
       <c r="B3">
-        <f>Ingredientes!H11</f>
+        <f>Ingredientes!H12</f>
         <v>253.61488249023606</v>
       </c>
       <c r="C3" t="s">
@@ -5057,7 +5076,7 @@
         <v>200</v>
       </c>
       <c r="B4">
-        <f>Ingredientes!I11</f>
+        <f>Ingredientes!I12</f>
         <v>1071.7467997451483</v>
       </c>
       <c r="C4" t="s">
@@ -5069,7 +5088,7 @@
         <v>203</v>
       </c>
       <c r="B5">
-        <f>Ingredientes!J11</f>
+        <f>Ingredientes!J12</f>
         <v>24.770686996353625</v>
       </c>
       <c r="C5" t="s">
@@ -5081,7 +5100,7 @@
         <v>204</v>
       </c>
       <c r="B6">
-        <f>Ingredientes!K11</f>
+        <f>Ingredientes!K12</f>
         <v>24.12769486810155</v>
       </c>
       <c r="C6" t="s">
@@ -5093,7 +5112,7 @@
         <v>205</v>
       </c>
       <c r="B7">
-        <f>Ingredientes!L11</f>
+        <f>Ingredientes!L12</f>
         <v>0.88496222825680837</v>
       </c>
       <c r="C7" t="s">
@@ -5105,7 +5124,7 @@
         <v>206</v>
       </c>
       <c r="B8">
-        <f>Ingredientes!M11</f>
+        <f>Ingredientes!M12</f>
         <v>6.943060812391832</v>
       </c>
       <c r="C8" t="s">
@@ -5117,7 +5136,7 @@
         <v>207</v>
       </c>
       <c r="B9">
-        <f>Ingredientes!N11</f>
+        <f>Ingredientes!N12</f>
         <v>14.238641629279604</v>
       </c>
       <c r="C9" t="s">
@@ -5129,7 +5148,7 @@
         <v>208</v>
       </c>
       <c r="B10">
-        <f>Ingredientes!O11</f>
+        <f>Ingredientes!O12</f>
         <v>14.650530996909589</v>
       </c>
       <c r="C10" t="s">
@@ -5141,7 +5160,7 @@
         <v>209</v>
       </c>
       <c r="B11">
-        <f>Ingredientes!P11</f>
+        <f>Ingredientes!P12</f>
         <v>1.436764439443897</v>
       </c>
       <c r="C11" t="s">
@@ -5153,7 +5172,7 @@
         <v>210</v>
       </c>
       <c r="B12">
-        <f>Ingredientes!Q11</f>
+        <f>Ingredientes!Q12</f>
         <v>26.159594014325013</v>
       </c>
       <c r="C12" t="s">
@@ -5165,7 +5184,7 @@
         <v>211</v>
       </c>
       <c r="B13">
-        <f>Ingredientes!R11</f>
+        <f>Ingredientes!R12</f>
         <v>5.0229541559884838</v>
       </c>
       <c r="C13" t="s">
@@ -5177,7 +5196,7 @@
         <v>212</v>
       </c>
       <c r="B14">
-        <f>Ingredientes!S11</f>
+        <f>Ingredientes!S12</f>
         <v>8.7745571047530539</v>
       </c>
       <c r="C14" t="s">
@@ -5189,7 +5208,7 @@
         <v>213</v>
       </c>
       <c r="B15">
-        <f>Ingredientes!T11</f>
+        <f>Ingredientes!T12</f>
         <v>1.66292908390054E-3</v>
       </c>
       <c r="C15" t="s">
@@ -5201,7 +5220,7 @@
         <v>214</v>
       </c>
       <c r="B16">
-        <f>Ingredientes!U11</f>
+        <f>Ingredientes!U12</f>
         <v>0.14935618528343669</v>
       </c>
       <c r="C16" t="s">
@@ -5213,7 +5232,7 @@
         <v>215</v>
       </c>
       <c r="B17">
-        <f>Ingredientes!V11</f>
+        <f>Ingredientes!V12</f>
         <v>9.2292564156479975E-2</v>
       </c>
       <c r="C17" t="s">
@@ -5225,7 +5244,7 @@
         <v>216</v>
       </c>
       <c r="B18">
-        <f>Ingredientes!W11</f>
+        <f>Ingredientes!W12</f>
         <v>0</v>
       </c>
       <c r="C18" t="s">
@@ -5237,7 +5256,7 @@
         <v>217</v>
       </c>
       <c r="B19">
-        <f>Ingredientes!X11</f>
+        <f>Ingredientes!X12</f>
         <v>0</v>
       </c>
       <c r="C19" t="s">
@@ -5249,7 +5268,7 @@
         <v>218</v>
       </c>
       <c r="B20">
-        <f>Ingredientes!Y11</f>
+        <f>Ingredientes!Y12</f>
         <v>0</v>
       </c>
       <c r="C20" t="s">
@@ -5261,7 +5280,7 @@
         <v>219</v>
       </c>
       <c r="B21">
-        <f>Ingredientes!Z11</f>
+        <f>Ingredientes!Z12</f>
         <v>2.5528001670194711</v>
       </c>
       <c r="C21" t="s">
@@ -5273,7 +5292,7 @@
         <v>220</v>
       </c>
       <c r="B22">
-        <f>Ingredientes!AA11</f>
+        <f>Ingredientes!AA12</f>
         <v>1.1000485502911805</v>
       </c>
       <c r="C22" t="s">
@@ -5285,7 +5304,7 @@
         <v>221</v>
       </c>
       <c r="B23">
-        <f>Ingredientes!AB11</f>
+        <f>Ingredientes!AB12</f>
         <v>109.65801676837393</v>
       </c>
       <c r="C23" t="s">
@@ -5297,7 +5316,7 @@
         <v>223</v>
       </c>
       <c r="B24">
-        <f>Ingredientes!AC11</f>
+        <f>Ingredientes!AC12</f>
         <v>4.2474744593153435</v>
       </c>
       <c r="C24" t="s">
@@ -5309,7 +5328,7 @@
         <v>224</v>
       </c>
       <c r="B25">
-        <f>Ingredientes!AD11</f>
+        <f>Ingredientes!AD12</f>
         <v>26.255769780275415</v>
       </c>
       <c r="C25" t="s">
@@ -5321,7 +5340,7 @@
         <v>225</v>
       </c>
       <c r="B26">
-        <f>Ingredientes!AE11</f>
+        <f>Ingredientes!AE12</f>
         <v>108.35467041012939</v>
       </c>
       <c r="C26" t="s">
@@ -5333,7 +5352,7 @@
         <v>226</v>
       </c>
       <c r="B27">
-        <f>Ingredientes!AF11</f>
+        <f>Ingredientes!AF12</f>
         <v>191.68114263983307</v>
       </c>
       <c r="C27" t="s">
@@ -5345,7 +5364,7 @@
         <v>227</v>
       </c>
       <c r="B28">
-        <f>Ingredientes!AG11</f>
+        <f>Ingredientes!AG12</f>
         <v>377.50835742753725</v>
       </c>
       <c r="C28" t="s">
@@ -5357,7 +5376,7 @@
         <v>228</v>
       </c>
       <c r="B29">
-        <f>Ingredientes!AH11</f>
+        <f>Ingredientes!AH12</f>
         <v>0.96340066760468868</v>
       </c>
       <c r="C29" t="s">
@@ -5369,7 +5388,7 @@
         <v>229</v>
       </c>
       <c r="B30">
-        <f>Ingredientes!AI11</f>
+        <f>Ingredientes!AI12</f>
         <v>0.15769073489076213</v>
       </c>
       <c r="C30" t="s">
@@ -5381,7 +5400,7 @@
         <v>230</v>
       </c>
       <c r="B31">
-        <f>Ingredientes!AJ11</f>
+        <f>Ingredientes!AJ12</f>
         <v>1.5607655991881915</v>
       </c>
       <c r="C31" t="s">
@@ -5393,7 +5412,7 @@
         <v>231</v>
       </c>
       <c r="B32">
-        <f>Ingredientes!AK11</f>
+        <f>Ingredientes!AK12</f>
         <v>15.437990802009416</v>
       </c>
       <c r="C32" t="s">
@@ -5405,7 +5424,7 @@
         <v>233</v>
       </c>
       <c r="B33">
-        <f>Ingredientes!AL11</f>
+        <f>Ingredientes!AL12</f>
         <v>11.126839497038029</v>
       </c>
       <c r="C33" t="s">
@@ -5417,7 +5436,7 @@
         <v>234</v>
       </c>
       <c r="B34">
-        <f>Ingredientes!AM11</f>
+        <f>Ingredientes!AM12</f>
         <v>1.3122385098417896E-2</v>
       </c>
       <c r="C34" t="s">
@@ -5429,7 +5448,7 @@
         <v>235</v>
       </c>
       <c r="B35">
-        <f>Ingredientes!AN11</f>
+        <f>Ingredientes!AN12</f>
         <v>0.31595652594110257</v>
       </c>
       <c r="C35" t="s">
@@ -5441,7 +5460,7 @@
         <v>236</v>
       </c>
       <c r="B36">
-        <f>Ingredientes!AO11</f>
+        <f>Ingredientes!AO12</f>
         <v>6.7333256284591247E-2</v>
       </c>
       <c r="C36" t="s">
@@ -5453,7 +5472,7 @@
         <v>237</v>
       </c>
       <c r="B37">
-        <f>Ingredientes!AP11</f>
+        <f>Ingredientes!AP12</f>
         <v>0.18503859090768732</v>
       </c>
       <c r="C37" t="s">
@@ -5465,7 +5484,7 @@
         <v>238</v>
       </c>
       <c r="B38">
-        <f>Ingredientes!AQ11</f>
+        <f>Ingredientes!AQ12</f>
         <v>0.65574464229971741</v>
       </c>
       <c r="C38" t="s">
@@ -5477,7 +5496,7 @@
         <v>239</v>
       </c>
       <c r="B39">
-        <f>Ingredientes!AR11</f>
+        <f>Ingredientes!AR12</f>
         <v>2.9766430601819667E-2</v>
       </c>
       <c r="C39" t="s">
@@ -5489,7 +5508,7 @@
         <v>240</v>
       </c>
       <c r="B40">
-        <f>Ingredientes!AS11</f>
+        <f>Ingredientes!AS12</f>
         <v>3.7766656656719307E-2</v>
       </c>
       <c r="C40" t="s">
@@ -5501,7 +5520,7 @@
         <v>241</v>
       </c>
       <c r="B41">
-        <f>Ingredientes!AT11</f>
+        <f>Ingredientes!AT12</f>
         <v>35.609041105843311</v>
       </c>
       <c r="C41" t="s">
@@ -5513,7 +5532,7 @@
         <v>242</v>
       </c>
       <c r="B42">
-        <f>Ingredientes!AU11</f>
+        <f>Ingredientes!AU12</f>
         <v>12.157548764651001</v>
       </c>
       <c r="C42" t="s">
@@ -5525,7 +5544,7 @@
         <v>243</v>
       </c>
       <c r="B43">
-        <f>Ingredientes!AV11</f>
+        <f>Ingredientes!AV12</f>
         <v>1.1277174543762483</v>
       </c>
       <c r="C43" t="s">
@@ -5537,7 +5556,7 @@
         <v>244</v>
       </c>
       <c r="B44">
-        <f>Ingredientes!AW11</f>
+        <f>Ingredientes!AW12</f>
         <v>21.879395518177091</v>
       </c>
       <c r="C44" t="s">
@@ -5549,7 +5568,7 @@
         <v>245</v>
       </c>
       <c r="B45">
-        <f>Ingredientes!AX11</f>
+        <f>Ingredientes!AX12</f>
         <v>110.28224277966781</v>
       </c>
       <c r="C45" t="s">
@@ -5561,7 +5580,7 @@
         <v>246</v>
       </c>
       <c r="B46">
-        <f>Ingredientes!AY11</f>
+        <f>Ingredientes!AY12</f>
         <v>0.18865161876182585</v>
       </c>
       <c r="C46" t="s">
@@ -5573,7 +5592,7 @@
         <v>247</v>
       </c>
       <c r="B47">
-        <f>Ingredientes!AZ11</f>
+        <f>Ingredientes!AZ12</f>
         <v>97.15558366234032</v>
       </c>
       <c r="C47" t="s">
@@ -5585,7 +5604,7 @@
         <v>248</v>
       </c>
       <c r="B48">
-        <f>Ingredientes!BA11</f>
+        <f>Ingredientes!BA12</f>
         <v>6.2883872920608624E-2</v>
       </c>
       <c r="C48" t="s">
@@ -5597,7 +5616,7 @@
         <v>249</v>
       </c>
       <c r="B49">
-        <f>Ingredientes!BB11</f>
+        <f>Ingredientes!BB12</f>
         <v>6.2883872920608624E-2</v>
       </c>
       <c r="C49" t="s">
@@ -5609,7 +5628,7 @@
         <v>250</v>
       </c>
       <c r="B50">
-        <f>Ingredientes!BC11</f>
+        <f>Ingredientes!BC12</f>
         <v>7.891926051536382</v>
       </c>
       <c r="C50" t="s">
@@ -5621,7 +5640,7 @@
         <v>251</v>
       </c>
       <c r="B51">
-        <f>Ingredientes!BD11</f>
+        <f>Ingredientes!BD12</f>
         <v>0.41859698074151819</v>
       </c>
       <c r="C51" t="s">
@@ -5633,7 +5652,7 @@
         <v>252</v>
       </c>
       <c r="B52">
-        <f>Ingredientes!BE11</f>
+        <f>Ingredientes!BE12</f>
         <v>0.32070775189510398</v>
       </c>
       <c r="C52" t="s">
@@ -5645,7 +5664,7 @@
         <v>253</v>
       </c>
       <c r="B53">
-        <f>Ingredientes!BF11</f>
+        <f>Ingredientes!BF12</f>
         <v>0</v>
       </c>
       <c r="C53" t="s">
@@ -5657,7 +5676,7 @@
         <v>254</v>
       </c>
       <c r="B54">
-        <f>Ingredientes!BG11</f>
+        <f>Ingredientes!BG12</f>
         <v>58.052295351208521</v>
       </c>
       <c r="C54" t="s">
@@ -5669,7 +5688,7 @@
         <v>255</v>
       </c>
       <c r="B55">
-        <f>Ingredientes!BH11</f>
+        <f>Ingredientes!BH12</f>
         <v>56.281066263944716</v>
       </c>
       <c r="C55" t="s">
@@ -5681,7 +5700,7 @@
         <v>256</v>
       </c>
       <c r="B56">
-        <f>Ingredientes!BI11</f>
+        <f>Ingredientes!BI12</f>
         <v>9.3124028698430248</v>
       </c>
       <c r="C56" t="s">
@@ -5693,7 +5712,7 @@
         <v>257</v>
       </c>
       <c r="B57">
-        <f>Ingredientes!BJ11</f>
+        <f>Ingredientes!BJ12</f>
         <v>0</v>
       </c>
       <c r="C57" t="s">
@@ -5705,7 +5724,7 @@
         <v>258</v>
       </c>
       <c r="B58">
-        <f>Ingredientes!BK11</f>
+        <f>Ingredientes!BK12</f>
         <v>0</v>
       </c>
       <c r="C58" t="s">
@@ -5717,7 +5736,7 @@
         <v>259</v>
       </c>
       <c r="B59">
-        <f>Ingredientes!BL11</f>
+        <f>Ingredientes!BL12</f>
         <v>8.3146454195027003E-2</v>
       </c>
       <c r="C59" t="s">
@@ -5729,7 +5748,7 @@
         <v>260</v>
       </c>
       <c r="B60">
-        <f>Ingredientes!BM11</f>
+        <f>Ingredientes!BM12</f>
         <v>14.813344330998044</v>
       </c>
       <c r="C60" t="s">
@@ -5741,7 +5760,7 @@
         <v>261</v>
       </c>
       <c r="B61">
-        <f>Ingredientes!BN11</f>
+        <f>Ingredientes!BN12</f>
         <v>4.08745173983956</v>
       </c>
       <c r="C61" t="s">
@@ -5753,7 +5772,7 @@
         <v>262</v>
       </c>
       <c r="B62">
-        <f>Ingredientes!BO11</f>
+        <f>Ingredientes!BO12</f>
         <v>24.528203987532965</v>
       </c>
       <c r="C62" t="s">
@@ -5765,7 +5784,7 @@
         <v>264</v>
       </c>
       <c r="B63">
-        <f>Ingredientes!BP11</f>
+        <f>Ingredientes!BP12</f>
         <v>1.247196812925405</v>
       </c>
       <c r="C63" t="s">
@@ -5777,7 +5796,7 @@
         <v>265</v>
       </c>
       <c r="B64">
-        <f>Ingredientes!BQ11</f>
+        <f>Ingredientes!BQ12</f>
         <v>0</v>
       </c>
       <c r="C64" t="s">
@@ -5789,7 +5808,7 @@
         <v>266</v>
       </c>
       <c r="B65">
-        <f>Ingredientes!BR11</f>
+        <f>Ingredientes!BR12</f>
         <v>0</v>
       </c>
       <c r="C65" t="s">
@@ -5801,7 +5820,7 @@
         <v>267</v>
       </c>
       <c r="B66">
-        <f>Ingredientes!BS11</f>
+        <f>Ingredientes!BS12</f>
         <v>19.296964470237441</v>
       </c>
       <c r="C66" t="s">
@@ -5813,7 +5832,7 @@
         <v>268</v>
       </c>
       <c r="B67">
-        <f>Ingredientes!BT11</f>
+        <f>Ingredientes!BT12</f>
         <v>17.921903782373455</v>
       </c>
       <c r="C67" t="s">
@@ -5825,7 +5844,7 @@
         <v>269</v>
       </c>
       <c r="B68">
-        <f>Ingredientes!BU11</f>
+        <f>Ingredientes!BU12</f>
         <v>72.316453858699916</v>
       </c>
       <c r="C68" t="s">
@@ -5837,7 +5856,7 @@
         <v>270</v>
       </c>
       <c r="B69">
-        <f>Ingredientes!BV11</f>
+        <f>Ingredientes!BV12</f>
         <v>72.002034494096876</v>
       </c>
       <c r="C69" t="s">
@@ -5849,7 +5868,7 @@
         <v>271</v>
       </c>
       <c r="B70">
-        <f>Ingredientes!BW11</f>
+        <f>Ingredientes!BW12</f>
         <v>1.9364599569112046</v>
       </c>
       <c r="C70" t="s">
@@ -5861,7 +5880,7 @@
         <v>272</v>
       </c>
       <c r="B71">
-        <f>Ingredientes!BX11</f>
+        <f>Ingredientes!BX12</f>
         <v>0</v>
       </c>
       <c r="C71" t="s">
@@ -5873,7 +5892,7 @@
         <v>273</v>
       </c>
       <c r="B72">
-        <f>Ingredientes!BY11</f>
+        <f>Ingredientes!BY12</f>
         <v>1.9494000605388674E-2</v>
       </c>
       <c r="C72" t="s">
@@ -5885,7 +5904,7 @@
         <v>274</v>
       </c>
       <c r="B73">
-        <f>Ingredientes!BZ11</f>
+        <f>Ingredientes!BZ12</f>
         <v>3.3251315097139962</v>
       </c>
       <c r="C73" t="s">
@@ -5897,7 +5916,7 @@
         <v>275</v>
       </c>
       <c r="B74">
-        <f>Ingredientes!CA11</f>
+        <f>Ingredientes!CA12</f>
         <v>0.31444731299100781</v>
       </c>
       <c r="C74" t="s">
@@ -5909,7 +5928,7 @@
         <v>276</v>
       </c>
       <c r="B75">
-        <f>Ingredientes!CB11</f>
+        <f>Ingredientes!CB12</f>
         <v>1.8865161876182586E-3</v>
       </c>
       <c r="C75" t="s">
@@ -5921,7 +5940,7 @@
         <v>277</v>
       </c>
       <c r="B76">
-        <f>Ingredientes!CC11</f>
+        <f>Ingredientes!CC12</f>
         <v>1.6769032778828966E-2</v>
       </c>
       <c r="C76" t="s">
@@ -5933,7 +5952,7 @@
         <v>278</v>
       </c>
       <c r="B77">
-        <f>Ingredientes!CD11</f>
+        <f>Ingredientes!CD12</f>
         <v>0</v>
       </c>
       <c r="C77" t="s">
@@ -5945,7 +5964,7 @@
         <v>279</v>
       </c>
       <c r="B78">
-        <f>Ingredientes!CE11</f>
+        <f>Ingredientes!CE12</f>
         <v>6.288387292060863E-4</v>
       </c>
       <c r="C78" t="s">
@@ -5957,7 +5976,7 @@
         <v>280</v>
       </c>
       <c r="B79">
-        <f>Ingredientes!CF11</f>
+        <f>Ingredientes!CF12</f>
         <v>30.938865476939441</v>
       </c>
       <c r="C79" t="s">
@@ -5969,7 +5988,7 @@
         <v>281</v>
       </c>
       <c r="B80">
-        <f>Ingredientes!CG11</f>
+        <f>Ingredientes!CG12</f>
         <v>0.77347163692348597</v>
       </c>
       <c r="C80" t="s">
@@ -5981,7 +6000,7 @@
         <v>282</v>
       </c>
       <c r="B81">
-        <f>Ingredientes!CH11</f>
+        <f>Ingredientes!CH12</f>
         <v>0</v>
       </c>
       <c r="C81" t="s">
@@ -5993,7 +6012,7 @@
         <v>283</v>
       </c>
       <c r="B82">
-        <f>Ingredientes!CI11</f>
+        <f>Ingredientes!CI12</f>
         <v>0.77347163692348597</v>
       </c>
       <c r="C82" t="s">
@@ -6005,7 +6024,7 @@
         <v>284</v>
       </c>
       <c r="B83">
-        <f>Ingredientes!CJ11</f>
+        <f>Ingredientes!CJ12</f>
         <v>0.17607484417770414</v>
       </c>
       <c r="C83" t="s">
@@ -6017,7 +6036,7 @@
         <v>285</v>
       </c>
       <c r="B84">
-        <f>Ingredientes!CK11</f>
+        <f>Ingredientes!CK12</f>
         <v>12.821183236873157</v>
       </c>
       <c r="C84" t="s">
@@ -6029,7 +6048,7 @@
         <v>286</v>
       </c>
       <c r="B85">
-        <f>Ingredientes!CL11</f>
+        <f>Ingredientes!CL12</f>
         <v>0</v>
       </c>
       <c r="C85" t="s">
@@ -6041,7 +6060,7 @@
         <v>287</v>
       </c>
       <c r="B86">
-        <f>Ingredientes!CM11</f>
+        <f>Ingredientes!CM12</f>
         <v>0</v>
       </c>
       <c r="C86" t="s">
@@ -6053,7 +6072,7 @@
         <v>288</v>
       </c>
       <c r="B87">
-        <f>Ingredientes!CN11</f>
+        <f>Ingredientes!CN12</f>
         <v>2.8384417752449451</v>
       </c>
       <c r="C87" t="s">
@@ -6065,7 +6084,7 @@
         <v>289</v>
       </c>
       <c r="B88">
-        <f>Ingredientes!CO11</f>
+        <f>Ingredientes!CO12</f>
         <v>0</v>
       </c>
       <c r="C88" t="s">
@@ -6077,7 +6096,7 @@
         <v>290</v>
       </c>
       <c r="B89">
-        <f>Ingredientes!CP11</f>
+        <f>Ingredientes!CP12</f>
         <v>0</v>
       </c>
       <c r="C89" t="s">
@@ -6089,7 +6108,7 @@
         <v>291</v>
       </c>
       <c r="B90">
-        <f>Ingredientes!CQ11</f>
+        <f>Ingredientes!CQ12</f>
         <v>6.2883872920608619E-4</v>
       </c>
       <c r="C90" t="s">
@@ -6101,7 +6120,7 @@
         <v>292</v>
       </c>
       <c r="B91">
-        <f>Ingredientes!CR11</f>
+        <f>Ingredientes!CR12</f>
         <v>2.5551813696740636E-3</v>
       </c>
       <c r="C91" t="s">
@@ -6113,7 +6132,7 @@
         <v>293</v>
       </c>
       <c r="B92">
-        <f>Ingredientes!CS11</f>
+        <f>Ingredientes!CS12</f>
         <v>9.9314596632614546E-3</v>
       </c>
       <c r="C92" t="s">
@@ -6125,7 +6144,7 @@
         <v>294</v>
       </c>
       <c r="B93">
-        <f>Ingredientes!CT11</f>
+        <f>Ingredientes!CT12</f>
         <v>0</v>
       </c>
       <c r="C93" t="s">
@@ -6137,7 +6156,7 @@
         <v>295</v>
       </c>
       <c r="B94">
-        <f>Ingredientes!CU11</f>
+        <f>Ingredientes!CU12</f>
         <v>3.486281914718542E-2</v>
       </c>
       <c r="C94" t="s">
@@ -6149,7 +6168,7 @@
         <v>296</v>
       </c>
       <c r="B95">
-        <f>Ingredientes!CV11</f>
+        <f>Ingredientes!CV12</f>
         <v>1.4672903681475346E-4</v>
       </c>
       <c r="C95" t="s">
@@ -6161,7 +6180,7 @@
         <v>297</v>
       </c>
       <c r="B96">
-        <f>Ingredientes!CW11</f>
+        <f>Ingredientes!CW12</f>
         <v>2.049103139764191</v>
       </c>
       <c r="C96" t="s">
@@ -6173,7 +6192,7 @@
         <v>298</v>
       </c>
       <c r="B97">
-        <f>Ingredientes!CX11</f>
+        <f>Ingredientes!CX12</f>
         <v>1.2209253282385731E-2</v>
       </c>
       <c r="C97" t="s">
@@ -6185,7 +6204,7 @@
         <v>299</v>
       </c>
       <c r="B98">
-        <f>Ingredientes!CY11</f>
+        <f>Ingredientes!CY12</f>
         <v>0.61220105385069146</v>
       </c>
       <c r="C98" t="s">
@@ -6197,7 +6216,7 @@
         <v>300</v>
       </c>
       <c r="B99">
-        <f>Ingredientes!CZ11</f>
+        <f>Ingredientes!CZ12</f>
         <v>4.3955827171505431E-2</v>
       </c>
       <c r="C99" t="s">
@@ -6209,7 +6228,7 @@
         <v>301</v>
       </c>
       <c r="B100">
-        <f>Ingredientes!DA11</f>
+        <f>Ingredientes!DA12</f>
         <v>2.620161371692026E-4</v>
       </c>
       <c r="C100" t="s">
@@ -6221,7 +6240,7 @@
         <v>302</v>
       </c>
       <c r="B101">
-        <f>Ingredientes!DB11</f>
+        <f>Ingredientes!DB12</f>
         <v>2.3958755582751887E-2</v>
       </c>
       <c r="C101" t="s">
@@ -6233,7 +6252,7 @@
         <v>303</v>
       </c>
       <c r="B102">
-        <f>Ingredientes!DC11</f>
+        <f>Ingredientes!DC12</f>
         <v>1.2996000403592447E-3</v>
       </c>
       <c r="C102" t="s">
@@ -6245,7 +6264,7 @@
         <v>304</v>
       </c>
       <c r="B103">
-        <f>Ingredientes!DD11</f>
+        <f>Ingredientes!DD12</f>
         <v>7.3176663317671897</v>
       </c>
       <c r="C103" t="s">
@@ -6257,7 +6276,7 @@
         <v>305</v>
       </c>
       <c r="B104">
-        <f>Ingredientes!DE11</f>
+        <f>Ingredientes!DE12</f>
         <v>0</v>
       </c>
       <c r="C104" t="s">
@@ -6269,7 +6288,7 @@
         <v>306</v>
       </c>
       <c r="B105">
-        <f>Ingredientes!DF11</f>
+        <f>Ingredientes!DF12</f>
         <v>0</v>
       </c>
       <c r="C105" t="s">
@@ -6281,7 +6300,7 @@
         <v>307</v>
       </c>
       <c r="B106">
-        <f>Ingredientes!DG11</f>
+        <f>Ingredientes!DG12</f>
         <v>2.1086360009678305E-2</v>
       </c>
       <c r="C106" t="s">
@@ -6293,7 +6312,7 @@
         <v>308</v>
       </c>
       <c r="B107">
-        <f>Ingredientes!DH11</f>
+        <f>Ingredientes!DH12</f>
         <v>7.5670260414465701E-2</v>
       </c>
       <c r="C107" t="s">
@@ -6305,7 +6324,7 @@
         <v>309</v>
       </c>
       <c r="B108">
-        <f>Ingredientes!DI11</f>
+        <f>Ingredientes!DI12</f>
         <v>0</v>
       </c>
       <c r="C108" t="s">
@@ -6317,7 +6336,7 @@
         <v>310</v>
       </c>
       <c r="B109">
-        <f>Ingredientes!DJ11</f>
+        <f>Ingredientes!DJ12</f>
         <v>5.8127294850311841</v>
       </c>
       <c r="C109" t="s">
@@ -6329,7 +6348,7 @@
         <v>311</v>
       </c>
       <c r="B110">
-        <f>Ingredientes!DK11</f>
+        <f>Ingredientes!DK12</f>
         <v>5.1788600459914482</v>
       </c>
       <c r="C110" t="s">
@@ -6341,7 +6360,7 @@
         <v>312</v>
       </c>
       <c r="B111">
-        <f>Ingredientes!DL11</f>
+        <f>Ingredientes!DL12</f>
         <v>0.107971609804685</v>
       </c>
       <c r="C111" t="s">
@@ -6353,7 +6372,7 @@
         <v>313</v>
       </c>
       <c r="B112">
-        <f>Ingredientes!DM11</f>
+        <f>Ingredientes!DM12</f>
         <v>6.2883872920608619E-3</v>
       </c>
       <c r="C112" t="s">
@@ -6365,7 +6384,7 @@
         <v>314</v>
       </c>
       <c r="B113">
-        <f>Ingredientes!DN11</f>
+        <f>Ingredientes!DN12</f>
         <v>6.2883872920608619E-4</v>
       </c>
       <c r="C113" t="s">
@@ -6377,7 +6396,7 @@
         <v>315</v>
       </c>
       <c r="B114">
-        <f>Ingredientes!DO11</f>
+        <f>Ingredientes!DO12</f>
         <v>0</v>
       </c>
       <c r="C114" t="s">
@@ -6389,7 +6408,7 @@
         <v>316</v>
       </c>
       <c r="B115">
-        <f>Ingredientes!DP11</f>
+        <f>Ingredientes!DP12</f>
         <v>3.6974822928902999</v>
       </c>
       <c r="C115" t="s">
@@ -6401,7 +6420,7 @@
         <v>317</v>
       </c>
       <c r="B116">
-        <f>Ingredientes!DQ11</f>
+        <f>Ingredientes!DQ12</f>
         <v>1.8800084054806749</v>
       </c>
       <c r="C116" t="s">
@@ -6413,7 +6432,7 @@
         <v>318</v>
       </c>
       <c r="B117">
-        <f>Ingredientes!DR11</f>
+        <f>Ingredientes!DR12</f>
         <v>0.99251712759693933</v>
       </c>
       <c r="C117" t="s">
@@ -6425,7 +6444,7 @@
         <v>319</v>
       </c>
       <c r="B118">
-        <f>Ingredientes!DS11</f>
+        <f>Ingredientes!DS12</f>
         <v>2.1646725188370839</v>
       </c>
       <c r="C118" t="s">
@@ -6437,7 +6456,7 @@
         <v>320</v>
       </c>
       <c r="B119">
-        <f>Ingredientes!DT11</f>
+        <f>Ingredientes!DT12</f>
         <v>0.63794920497288421</v>
       </c>
       <c r="C119" t="s">
@@ -6449,7 +6468,7 @@
         <v>321</v>
       </c>
       <c r="B120">
-        <f>Ingredientes!DU11</f>
+        <f>Ingredientes!DU12</f>
         <v>7.2840486133038326E-2</v>
       </c>
       <c r="C120" t="s">
@@ -6461,7 +6480,7 @@
         <v>322</v>
       </c>
       <c r="B121">
-        <f>Ingredientes!DV11</f>
+        <f>Ingredientes!DV12</f>
         <v>0.6448664309941512</v>
       </c>
       <c r="C121" t="s">
@@ -6473,7 +6492,7 @@
         <v>323</v>
       </c>
       <c r="B122">
-        <f>Ingredientes!DW11</f>
+        <f>Ingredientes!DW12</f>
         <v>3.4586130106334738E-3</v>
       </c>
       <c r="C122" t="s">
@@ -6485,7 +6504,7 @@
         <v>324</v>
       </c>
       <c r="B123">
-        <f>Ingredientes!DX11</f>
+        <f>Ingredientes!DX12</f>
         <v>0</v>
       </c>
       <c r="C123" t="s">
@@ -6497,7 +6516,7 @@
         <v>325</v>
       </c>
       <c r="B124">
-        <f>Ingredientes!DY11</f>
+        <f>Ingredientes!DY12</f>
         <v>0</v>
       </c>
       <c r="C124" t="s">
@@ -6509,7 +6528,7 @@
         <v>326</v>
       </c>
       <c r="B125">
-        <f>Ingredientes!DZ11</f>
+        <f>Ingredientes!DZ12</f>
         <v>0</v>
       </c>
       <c r="C125" t="s">
@@ -6521,7 +6540,7 @@
         <v>327</v>
       </c>
       <c r="B126">
-        <f>Ingredientes!EA11</f>
+        <f>Ingredientes!EA12</f>
         <v>6.2883872920608619E-3</v>
       </c>
       <c r="C126" t="s">
@@ -6533,7 +6552,7 @@
         <v>328</v>
       </c>
       <c r="B127">
-        <f>Ingredientes!EB11</f>
+        <f>Ingredientes!EB12</f>
         <v>6.2883872920608619E-3</v>
       </c>
       <c r="C127" t="s">
@@ -6545,7 +6564,7 @@
         <v>329</v>
       </c>
       <c r="B128">
-        <f>Ingredientes!EC11</f>
+        <f>Ingredientes!EC12</f>
         <v>8.3845163894144829E-4</v>
       </c>
       <c r="C128" t="s">
@@ -6557,7 +6576,7 @@
         <v>330</v>
       </c>
       <c r="B129">
-        <f>Ingredientes!ED11</f>
+        <f>Ingredientes!ED12</f>
         <v>0</v>
       </c>
       <c r="C129" t="s">
@@ -6569,7 +6588,7 @@
         <v>331</v>
       </c>
       <c r="B130">
-        <f>Ingredientes!EE11</f>
+        <f>Ingredientes!EE12</f>
         <v>0</v>
       </c>
       <c r="C130" t="s">
@@ -6581,7 +6600,7 @@
         <v>332</v>
       </c>
       <c r="B131">
-        <f>Ingredientes!EF11</f>
+        <f>Ingredientes!EF12</f>
         <v>0</v>
       </c>
       <c r="C131" t="s">
@@ -6593,7 +6612,7 @@
         <v>333</v>
       </c>
       <c r="B132">
-        <f>Ingredientes!EG11</f>
+        <f>Ingredientes!EG12</f>
         <v>2.4839129803640409E-2</v>
       </c>
       <c r="C132" t="s">
@@ -6605,7 +6624,7 @@
         <v>334</v>
       </c>
       <c r="B133">
-        <f>Ingredientes!EH11</f>
+        <f>Ingredientes!EH12</f>
         <v>1.8865161876182586E-3</v>
       </c>
       <c r="C133" t="s">
@@ -6617,7 +6636,7 @@
         <v>335</v>
       </c>
       <c r="B134">
-        <f>Ingredientes!EI11</f>
+        <f>Ingredientes!EI12</f>
         <v>1.8865161876182586E-3</v>
       </c>
       <c r="C134" t="s">
@@ -6629,7 +6648,7 @@
         <v>336</v>
       </c>
       <c r="B135">
-        <f>Ingredientes!EJ11</f>
+        <f>Ingredientes!EJ12</f>
         <v>2.2952613616022147E-2</v>
       </c>
       <c r="C135" t="s">
@@ -6641,7 +6660,7 @@
         <v>337</v>
       </c>
       <c r="B136">
-        <f>Ingredientes!EK11</f>
+        <f>Ingredientes!EK12</f>
         <v>2.2952613616022147E-2</v>
       </c>
       <c r="C136" t="s">
@@ -6653,7 +6672,7 @@
         <v>338</v>
       </c>
       <c r="B137">
-        <f>Ingredientes!EL11</f>
+        <f>Ingredientes!EL12</f>
         <v>129.2263588518507</v>
       </c>
       <c r="C137" t="s">
@@ -6665,7 +6684,7 @@
         <v>7</v>
       </c>
       <c r="B138">
-        <f>Ingredientes!EM11</f>
+        <f>Ingredientes!EM12</f>
         <v>2.161807809070702</v>
       </c>
       <c r="C138" t="s">
@@ -6677,7 +6696,7 @@
         <v>339</v>
       </c>
       <c r="B139">
-        <f>Ingredientes!EN11</f>
+        <f>Ingredientes!EN12</f>
         <v>5.6267790779661479E-2</v>
       </c>
       <c r="C139" t="s">
@@ -6689,7 +6708,7 @@
         <v>340</v>
       </c>
       <c r="B140">
-        <f>Ingredientes!EO11</f>
+        <f>Ingredientes!EO12</f>
         <v>0.19807302034473126</v>
       </c>
       <c r="C140" t="s">
@@ -6701,7 +6720,7 @@
         <v>341</v>
       </c>
       <c r="B141">
-        <f>Ingredientes!EP11</f>
+        <f>Ingredientes!EP12</f>
         <v>0.20582171090794849</v>
       </c>
       <c r="C141" t="s">
@@ -6713,7 +6732,7 @@
         <v>342</v>
       </c>
       <c r="B142">
-        <f>Ingredientes!EQ11</f>
+        <f>Ingredientes!EQ12</f>
         <v>0.35117638574453708</v>
       </c>
       <c r="C142" t="s">
@@ -6725,7 +6744,7 @@
         <v>343</v>
       </c>
       <c r="B143">
-        <f>Ingredientes!ER11</f>
+        <f>Ingredientes!ER12</f>
         <v>0.28180149971912338</v>
       </c>
       <c r="C143" t="s">
@@ -6737,7 +6756,7 @@
         <v>344</v>
       </c>
       <c r="B144">
-        <f>Ingredientes!ES11</f>
+        <f>Ingredientes!ES12</f>
         <v>0.13791271783128412</v>
       </c>
       <c r="C144" t="s">
@@ -6749,7 +6768,7 @@
         <v>345</v>
       </c>
       <c r="B145">
-        <f>Ingredientes!ET11</f>
+        <f>Ingredientes!ET12</f>
         <v>4.8224943433115668E-3</v>
       </c>
       <c r="C145" t="s">
@@ -6761,7 +6780,7 @@
         <v>346</v>
       </c>
       <c r="B146">
-        <f>Ingredientes!EU11</f>
+        <f>Ingredientes!EU12</f>
         <v>0.2196561629504824</v>
       </c>
       <c r="C146" t="s">
@@ -6773,7 +6792,7 @@
         <v>347</v>
       </c>
       <c r="B147">
-        <f>Ingredientes!EV11</f>
+        <f>Ingredientes!EV12</f>
         <v>0.17229063244728174</v>
       </c>
       <c r="C147" t="s">
@@ -6785,7 +6804,7 @@
         <v>348</v>
       </c>
       <c r="B148">
-        <f>Ingredientes!EW11</f>
+        <f>Ingredientes!EW12</f>
         <v>0.24940861935831968</v>
       </c>
       <c r="C148" t="s">
@@ -6797,7 +6816,7 @@
         <v>349</v>
       </c>
       <c r="B149">
-        <f>Ingredientes!EX11</f>
+        <f>Ingredientes!EX12</f>
         <v>0.2612503513389694</v>
       </c>
       <c r="C149" t="s">
@@ -6809,7 +6828,7 @@
         <v>350</v>
       </c>
       <c r="B150">
-        <f>Ingredientes!EY11</f>
+        <f>Ingredientes!EY12</f>
         <v>9.8708815323479346E-2</v>
       </c>
       <c r="C150" t="s">
@@ -6821,7 +6840,7 @@
         <v>351</v>
       </c>
       <c r="B151">
-        <f>Ingredientes!EZ11</f>
+        <f>Ingredientes!EZ12</f>
         <v>0.22352002758660422</v>
       </c>
       <c r="C151" t="s">
@@ -6833,7 +6852,7 @@
         <v>352</v>
       </c>
       <c r="B152">
-        <f>Ingredientes!FA11</f>
+        <f>Ingredientes!FA12</f>
         <v>0.4357307399832866</v>
       </c>
       <c r="C152" t="s">
@@ -6845,7 +6864,7 @@
         <v>353</v>
       </c>
       <c r="B153">
-        <f>Ingredientes!FB11</f>
+        <f>Ingredientes!FB12</f>
         <v>0.54326775235512015</v>
       </c>
       <c r="C153" t="s">
@@ -6857,7 +6876,7 @@
         <v>354</v>
       </c>
       <c r="B154">
-        <f>Ingredientes!FC11</f>
+        <f>Ingredientes!FC12</f>
         <v>0.14449665932607186</v>
       </c>
       <c r="C154" t="s">
@@ -6869,7 +6888,7 @@
         <v>355</v>
       </c>
       <c r="B155">
-        <f>Ingredientes!FD11</f>
+        <f>Ingredientes!FD12</f>
         <v>0.21091320848542044</v>
       </c>
       <c r="C155" t="s">
@@ -6881,7 +6900,7 @@
         <v>356</v>
       </c>
       <c r="B156">
-        <f>Ingredientes!FE11</f>
+        <f>Ingredientes!FE12</f>
         <v>0.30516495463822685</v>
       </c>
       <c r="C156" t="s">
@@ -6893,7 +6912,7 @@
         <v>357</v>
       </c>
       <c r="B157">
-        <f>Ingredientes!FF11</f>
+        <f>Ingredientes!FF12</f>
         <v>0</v>
       </c>
       <c r="C157" t="s">
@@ -6905,7 +6924,7 @@
         <v>358</v>
       </c>
       <c r="B158">
-        <f>Ingredientes!FG11</f>
+        <f>Ingredientes!FG12</f>
         <v>0.12105145537217159</v>
       </c>
       <c r="C158" t="s">
@@ -6917,7 +6936,7 @@
         <v>359</v>
       </c>
       <c r="B159">
-        <f>Ingredientes!FH11</f>
+        <f>Ingredientes!FH12</f>
         <v>0</v>
       </c>
       <c r="C159" t="s">
@@ -6929,7 +6948,7 @@
         <v>360</v>
       </c>
       <c r="B160">
-        <f>Ingredientes!FI11</f>
+        <f>Ingredientes!FI12</f>
         <v>1.0480645486768103</v>
       </c>
       <c r="C160" t="s">
@@ -6941,7 +6960,7 @@
         <v>361</v>
       </c>
       <c r="B161">
-        <f>Ingredientes!FJ11</f>
+        <f>Ingredientes!FJ12</f>
         <v>38.568775391306616</v>
       </c>
       <c r="C161" t="s">
@@ -6953,7 +6972,7 @@
         <v>362</v>
       </c>
       <c r="B162">
-        <f>Ingredientes!FK11</f>
+        <f>Ingredientes!FK12</f>
         <v>0.76927937872877883</v>
       </c>
       <c r="C162" t="s">
@@ -6965,7 +6984,7 @@
         <v>363</v>
       </c>
       <c r="B163">
-        <f>Ingredientes!FL11</f>
+        <f>Ingredientes!FL12</f>
         <v>15.762890812099229</v>
       </c>
       <c r="C163" t="s">
@@ -6977,7 +6996,7 @@
         <v>364</v>
       </c>
       <c r="B164">
-        <f>Ingredientes!FM11</f>
+        <f>Ingredientes!FM12</f>
         <v>0</v>
       </c>
       <c r="C164" t="s">
@@ -6989,7 +7008,7 @@
         <v>365</v>
       </c>
       <c r="B165">
-        <f>Ingredientes!FN11</f>
+        <f>Ingredientes!FN12</f>
         <v>27.574578275686882</v>
       </c>
       <c r="C165" t="s">
@@ -7001,7 +7020,7 @@
         <v>366</v>
       </c>
       <c r="B166">
-        <f>Ingredientes!FO11</f>
+        <f>Ingredientes!FO12</f>
         <v>2.2533387796551421E-2</v>
       </c>
       <c r="C166" t="s">
@@ -7013,7 +7032,7 @@
         <v>367</v>
       </c>
       <c r="B167">
-        <f>Ingredientes!FP11</f>
+        <f>Ingredientes!FP12</f>
         <v>5.8901227635636745E-2</v>
       </c>
       <c r="C167" t="s">
@@ -7025,7 +7044,7 @@
         <v>368</v>
       </c>
       <c r="B168">
-        <f>Ingredientes!FQ11</f>
+        <f>Ingredientes!FQ12</f>
         <v>0.11004677761106509</v>
       </c>
       <c r="C168" t="s">
@@ -7037,7 +7056,7 @@
         <v>369</v>
       </c>
       <c r="B169">
-        <f>Ingredientes!FR11</f>
+        <f>Ingredientes!FR12</f>
         <v>0.21799742612477657</v>
       </c>
       <c r="C169" t="s">
